--- a/500all/speech_level/speeches_CHRG-114hhrg20381.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20381.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Subcommittee will come to order.    Members will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions and extraneous materials for the record, subject to the length limitation in rules.    I would like to begin my remarks by offering my sincere condolences to those who recently lost loved ones and sustained property damage in Sri Lanka and across South Asia due to Cyclone Roanu.    I wish for a speedy recovery for the Sri Lankan people and hope our newly invigorated development relationship that we're going to discuss today can help meet some of the challenges left in the wake of the storm.    Sri Lanka's lengthy and tortuous civil war between the majority Sinhalese and the minority Tamils of the north and east ended in 2009 but the country remains challenged by deep divisions.    Sri Lanka's prior leader, President Rajapaksa, steered the country in an authoritarian direction which included allegations of pervasive human rights abuses, rampant corruption and the failure to follow the rule of law.    In 2015, the Sri Lankan people chose a new path with the election of President Sirisena and Prime Minister Wickremesinghe. There's an opportunity for a new era of democratic reforms and enhanced U.S.-Sri Lankan relations.    Relations between the U.S. and Sri Lanka under the Rajapaksa government were often strained due in part to human rights concerns and the treatment of the minority Tamil population.    We are optimistic that the Sirisena-led government is committed to change and have already begun implementing important reforms. In 2015, the Sri Lankan Parliament passed its nineteenth constitutional amendment to strengthen democratic governance and the government co-sponsored a U.N. Civil Rights Council resolution addressing atrocities committed during the civil war.    However, the Sirisena government now appears reluctant to allow foreign judges and prosecutors to participate in war crimes investigations as called for in the U.N. resolution.    President Sirisena has the difficult task of maintaining the government unity that is needed to pass constitutional reforms.    He has found himself between a rock and a hard place and any moves favored by one element of Sri Lanka's political puzzle could alienate another, potentially undermining his political support and breaking the fragile consensus that makes reform even possible.    In light of this challenge late last year, Secretary Kerry announced a U.S. assistance commitment of $40 million to support comprehensive reforms in Sri Lanka, which the administration hopes will have a significant effect on the trajectory of Sri Lanka's democratic reform and reconciliation process.    Closer U.S.-Sri Lankan ties founded in democratic values will facilitate a stronger foundation that will serve as a solid basis for broader cooperation in the Indian Ocean region as well.    Under the Rajapaksa--I apologize, I should have a better handle on that name--leadership human rights became a wedge issue for the United States and Sri Lanka, weakening the relationship, and in response Sri Lanka turned to China for support.    China considers to assert considerable influence, funding development projects in Sri Lanka including the Colombo Port City Project, a $1.4 billion infrastructure project almost entirely funded by Chinese foreign direct investment.    The port is strategically located along the busiest commercial sea lane in the world and will be a key part of China's One Belt, One Road Maritime Silk Road vision to expand its influence by investing in infrastructure along the trade and energy routes that transit the Indian Ocean.    China's regional investments are difficult for small nations like Sri Lanka to pass up. These offers are easy to accept as they do not come with commitments to reform in any way.    Through our increased development commitment and diplomatic ties, the United States is recognizing Sri Lanka's geopolitical significance to the region and I do support this elevated cooperation.    President Sirisena has shown a willingness to work more closely with the United States and in February of this year our nations began the annual U.S.-Sri Lanka partner dialogue, bringing new opportunities for the bilateral relationship.    And I look forward to our panel of experts suggesting ways in which we might enhance the U.S.-Sri-Lankan relationship to our mutual benefit.    I also hope they will share insights on Sri Lanka's delicate politics and make recommendations for the future of the U.S.-Sri Lankan relations.    This is a heightened--there is a heightened sense of optimism surrounding Sri Lanka's recent changes and I look forward to today's hearing to discuss ways we can prioritize those efforts.    And I'd like to turn now to Mr. Sherman for any statements he might have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman, thank you for holding this hearing and I join with you in concern about China's expansion into the Indian Ocean and especially in Pakistani and Sri Lankan ports.    First, I want to express my sympathy and condolences for all those in Sri Lanka impacted by the flooding associated by Cyclone Roanu. I hope that the hundreds of thousands of people who were displaced can return to their homes and rebuild soon. I'm looking forward to those whose loved ones are missing hopefully being reunited with them.    Last year, Sri Lanka saw some positive developments. I expect there's near universal approval among the subcommittee members for the election of Sri Lankan President Sirisena and the reaffirmation of the decision in the parliamentary elections later in the year.    The elections brought to an end the previous government, which had become increasingly intolerant. These elections represented a true success for the democratic spirit. The new President deserves recognition for reducing the power of the presidency.    I look forward to one day complimenting an American President for scaling back the expansion of the imperial presidency here in the United States.    But returning to Sri Lanka, the new President there has scaled back the powers of the presidency, creating more space for dissent and free expression and opening the country to greater scrutiny by international human rights organizations.    These are notable steps. It's never easy to heal a civil war. The current government came in with a set of promises and impressed the world. Sri Lanka's co-sponsorship in October 2015 of the U.N. Human Rights Council resolution recommending concrete steps toward true political reconciliation was truly and widely acclaimed.    There were promises of the return of land seized during the conflict of accountability with international oversight for those who committed crimes, of constitutional reforms to move power to regions and of changes in the security sector that would end a culture that promoted abuse with impunity.    Last month, I met with the Sri Lankan Ambassador and encouraged Sri Lanka to move forward with plans to continue political reconciliation. The Ambassador described a decline in the military's role and in its presence in the north and east of the country, and the constitutional council's work toward giving more power to local officials.    What I've heard from others, particularly from Tamil groups, is that the political process of reconciliation and security sector reform are not moving forward nearly as quickly as they should.    It is encouraging that the government has established an office of missing persons but we have yet to see how it can operate independently from the government, how it will be resourced and how effective it will be.    The government has promised to reduce the role of the military but the defense budget has actually grown from $1.2 billion in 2009, which is when the conflict ended, to a new higher level of $2.13 billion in 2016.    The government has declared that it will resettle all those displaced in the war by the end of this year. Yet, it has not returned the vast majority of land seized during the conflict.    It is deeply disturbing to learn that both the President and Prime Minister of Sri Lanka have declared their intention to pursue a truth and reconciliation mechanism devoid of international judges. The Tamil population is unlikely to accept this as impartial justice.    Most critical is the issue of the return of government-seized land. The slow progress on this front represents not only a burden on tens of thousands of those who have been displaced, many of whom remain homeless but also a major barrier to building trust between the peoples of north and east Sri Lanka with the central government.    This is a tenuous moment. There is still a sense of optimism, but the government can no longer just rest on this sense of optimism that came with its election.    I look forward to the witnesses' assessment of these processes and especially for direction on what the United States can do to advance full reconciliation between the Sinhalese and the Tamils with due respect for human rights and accountability. Sri Lanka has traditionally been one of the most advanced and prosperous nations in South Asia and I look forward to it also being a beacon of human rights as well, and I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman.    I want to thank you for holding this hearing and thank the witnesses for being here. As a former chair of this committee, I have taken a particular interest in Sri Lanka and I visited there and been in the northeast and saw the burned-out buildings and a lot of the damage and things which had been caused by a lot of years of war and a lot of lives destroyed.    And just yesterday Sri Lanka acknowledged approximately 65,000 people missing during the 26 years of the off and on civil war. But now 6 years after the official end of the civil war there may be real opportunity to reconcile the people of Sri Lanka and rebuilt this really beautiful country. So I hope that they are successful.    However, I do remain somewhat weary. Although Sri Lanka is in the midst of early signs of actually attaining a sustaining peace and democracy, the scars of the civil war still remain and recently it was somewhat alarming when President Sirisena vowed to eradicate the LTTE ideologies both locally and internationally and I think this kind of rhetoric can be counterproductive but also damaging for the long-term prospects for national reconciliation, which is absolutely critical.    So I know these are exceptionally complex issues. I thank you and commend you for holding the hearing and yield back.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Chairman Salmon and Ranking Member Sherman, as well as all of our distinguished guests for coming to testify here today.    I especially love to see a professor from City University of New York on our panel. We continue to express our condolences to so many people and their families who have been affected by the landslides and our thoughts and prayers continued to be with them.    The election of President Sirisena in January 2015 brought the promise of a wide variety of reforms and a more inclusive government that would protect the interests of all Sri Lankans regardless of ethnic and religious affiliations.    The United States has a strong interest in ensuring that Sri Lanka remains committed to these reforms and we have certainly deepened our engagement with Sri Lanka in anticipation that a Sirisena government will follow through with these promises.    Sri Lanka has certainly taken some steps to implement a few reforms. But many people, particularly in the minority populations, experience ongoing violence and have been frustrated with the slow reform process that remains extremely vulnerable to political divisions.    I look forward to hearing your assessment on the current reform process and challenges. Thank you, and I yield back.</t>
   </si>
   <si>
@@ -97,18 +85,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Donovan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Chairman. I would like to thank Subcommittee Chairman Matt Salmon and Ranking Member Brad Sherman along with their staffs for holding this hearing.    Although I am not a member of this committee, I am grateful for the opportunity to speak here today. The relationship between the United States and Sri Lanka is important to my district of Staten Island and western Brooklyn because I represent the largest population of Sri Lankans in the United States. And welcome, Professor. It is great to have another New Yorker in the room.    Many of my constituents are ethnic Tamils and left Sri Lanka during the civil war that lasted 26 years. They could not have been more relieved when it ended in 2009 and elections were conducted in 2015.    These elections in Sri Lanka have provided an opening for change and reforms that have been taken place. However, I am not sure if the reforms have gone far enough. So U.S. attention and encouragement remains vital.    In particular, the reforms needed for reconciliation between Sinhalese and Tamils, Hindus, Christians, Muslims and Buddhists after a long war have not yet been accomplished.    We need security sector reform to reorient the military for peace time, political reform to provide greater autonomy for regional governments, and legal reform for neutrality of the judiciary and criminalization.    Criminalizing terrible abuses such as enforced disappearances, war crimes and crimes against humanity remain as important tasks for the future.    Sri Lanka has made important commitments in the area of accountability and transactional justice and needs to be held to those commitments in the areas of truth telling, justice, reparations and institutional reforms so that reconciliation can take place.    I look forward to hearing from the witnesses and reporting back to my constituents, and I yield back the remainder of my time, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you. We are proud to be joined today by an esteemed group of panelists--first, Ms. Lisa Curtis, senior research fellow at the Heritage Foundation, welcome; Ms. Kara Bue, partner at Armitage International; and Dr. Nimmi Gowrinathan.    Did I say that right? Close enough, for government work anyway? A visiting professor from the city of New York.    And we are really thrilled to have you each here today and we will start with Ms. Curtis.</t>
   </si>
   <si>
-    <t>Curtis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Curtis. Thank you, Chairman and----</t>
   </si>
   <si>
@@ -121,16 +103,10 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Bue.</t>
   </si>
   <si>
-    <t>Bue</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bue. Thank you, Mr. Chairman and Ranking Member Sherman and the other esteemed members of this committee.    I would like to express my appreciation for your willingness to have me appear here to talk about the future of Sri Lanka. I followed it for some time and I am very grateful for the attention it is getting now.    I too would like to express my condolences to the Sri Lankan people during the cyclone that hit several months ago. I was there at the time and it was devastating to see the harm that was done to the people and their property, but I was very proud too that the United States came forward with additional aid that could help the people who suffered from those storms. So I was very happy to see that happen.    I had been asked to talk about U.S.-Sri Lanka relations. Over the last 15 years there has been an ebb and flow in terms of our engagement there.    With the election of President Sirisena and Prime Minister Wickremesinghe, there really is a new opportunity for engagement. They came into power with a platform of good governance and reconciliation, and together with that they came in with the desire to rebalance Sri Lanka's foreign policy.    What that did was open the door for the United States to engage in a wide range of opportunities for support in Sri Lanka's efforts to finally set the stage for lasting peace and it also allowed us to regain our partnership with Sri Lanka on key issues.    For its part, the Government of Sri Lanka has put forth what anyone would consider a very ambitious agenda. I look at it in terms of five pillars--their ideas about constitutional reform, economic stabilization, addressing the painful war legacy, rebuilding democratic institutions and reestablishing rule of law.    In many ways they have made great progress in the 15, 16 months since they've been in power. Importantly, they have undertaken two ambitious efforts.    One is constitutional reform where they're looking to redraft the constitution, have that presented to the Parliament at the end of the year and then thereafter follow it with a referendum.    The other and perhaps more important was Sri Lanka's agreement at the U.N. Human Rights Council meeting to agree to the resolution on reconciliation and transitional justice. That, I believe, is a historic event, particularly given the history of the Rajapaksa regime.    The other thing I would like to note on the Government of Sri Lanka's part is the tone it has taken with regard to ethnic issues and how different that is from the Rajapaksa regime.    I know some of what they are doing is very symbolic but it has been meaningful to people in Sri Lanka. The national anthem, for example, on Independence Day being sung in Tamil was a very big deal to many Tamils.    I met with Chief Justice Wickremesinghe and he was very moved by that fact. On Remembrance Day, which used to be called Victory Day, they held no parades and that, I think, was a testament to the Sri Lankan Government's intentions with regard to reconciliation.    In turn, for all of this the United States has stepped up its engagement as well. Soon after the elections, they had a number of high-level visits. They developed the idea of a new U.S.-Sri Lankan partnership dialogue. The U.S. was very instrumental at the Human Rights Council meeting.    In terms of the resolution we have increased assistance. Forty million dollars, I believe, is what Secretary Kerry offered during his visit in May 2015 and we engaged a bit on military to military engagement and, of course, are looking at economic opportunities.    Having traveled to Sri Lanka several--at least four times in the last 9 months, I did want to offer some caution in the sense that while we are very excited about how U.S.-Sri Lanka relations are going and the direction they are taking, there are clouds in terms of how the Sri Lankan Government can move forward.    They face a lot of challenges in trying to implement their wide ambitious agenda. The first is that it is very big and it has a lot of moving parts.    For Sri Lanka to do everything it wants to do, it is going to take a long and very complicated process to get things done and I think that is something that everyone needs to realize.    They also lack resources and institutional capacity, both in terms of people and in infrastructure. There are people within the military, within the bureaucracy and within political parties that aren't really on board in terms of what this ambitious agenda is about to do.    So they do face a lot of controversy there and on top of it, the new government is part of a very diverse and unique coalition within the Sri Lankan political party.    So there is a lot left to be done and not everyone has gotten down to work and is attempting to address its agenda. Having talked to people in the north and east, they are not yet feeling the peace dividend.    What I have heard is a statement that is commonly used, which is that everything has changed and yet nothing has changed. And so the government has a lot left to do to respond to the needs of the people in the war-affected areas and that too is a very large challenge and something that we should try to help them with.    In all of this, I think the areas that deserve the most attention are leadership and confidence-building measures. The Sri Lankan Government has a short time frame in which to get a lot done and people in the war-affected areas in particular aren't going to give it that much time before their positions start to harden and, frankly, I think they're already starting to harden.    And so in terms of leadership and confidence building, leadership is the idea of greater communication on the part of the Sri Lankan Government.    In terms of their agenda, I don't think they have done well enough in educating and bringing along all people of Sri Lanka--the people in the south as well as the north and east--in terms of what they are trying to do to respond to everybody's needs. Communication is a big factor.    In terms of confidence-building measures, the idea would try to change the mantra in the north and east about how everything has changed and nothing has changed. Start making things change a little bit for the better in terms of focusing on more land release, for example.    Lastly, an area that I think the U.S. should look at in greater detail is the idea of a donor conference for development in the north and east.    In 2003, after the cease fire had taken place, the United States was instrumental in bringing together an international coalition in a donor conference in Tokyo where they raised $4.5 billion for a period of 3 years.    And that gave people a lot of hope. Now, the rancorous politics in Sri Lanka dashed those hopes and war returned. But in this instance where we feel there is a little more hope and a little more opportunity for lasting peace, I do think it would be wise to consider another type of effort where we could be instrumental making tangible change happen in the war-affected areas.    And with that, I would like to thank you for your time and consideration.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you very much.    Dr. Gowrinathan.</t>
-  </si>
-  <si>
-    <t>Gowrinathan</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Gowrinathan. Okay. I imagine you all hear a lot of these panels, a lot of these conversations and I think what comes up over and over again is that there is this disconnect between researchers, between activists, between practitioner and policy makers, and I think one of the biggest disconnects is that policy makers don't understand the ground realities, right.    Obviously, it is difficult for policy makers to do. I think, you know, what a lot of my work--what I would like to testify to is how the policies that are made over here affect the people over there--how the people over there experience these policies.    If you pass materiel support for terrorism law in the United States it affects the resources available to a young girl in the northeast in Sri Lanka.    I think the U.S. policies abroad and particularly, you know, we are seeing this with Sri Lanka, are too often committed to an ideal and this feels sort of intentional to me, being committed to an ideal.    That ideal is usually democracy, which is an important ideal to uphold. But this commitment need not challenge political agendas. If you uphold only the ideal then you don't have to shift political agendas and it is these political agendas by the Sri Lankan Government, by the international community and by the United States that can sometimes sustain and create more conflict.    So in Sri Lanka as elsewhere solutions that are based on ideals are not going to be effective--have not been effective. This is particularly concerning right now because where a solution fails, violence returns, and that is what I think all of us don't want to see happen in Sri Lanka.    So as we consider the progress in Sri Lanka, how do we gauge it? Do we gauge it on policies that reflect an ideal to promote peace or do we gauge it on solutions that create structural change that is required to end violence.    Which way are we measuring these policies in Sri Lanka? And this is a really central question because the people these policies affect can feel the difference between the two.    And so there's four areas that I want to look at here to examine the gap between the people's experiences and the policies that we are examining. And the first is transitional justice.    People have been talking a lot about transitional justice in Sri Lanka. There was a new report out from a group of local scholars in Sri Lanka--legal scholars--and one of the first requirements for transitional justice is that you address both truth and justice. The two have to be done together.    And while the question for Sri Lanka is will the Government of Sri Lanka be willing to dig up mass graves, to find the missing husband of a widow, if that same body becomes evidence for war crimes.    Will there be truth and justice? The ground reports reveal that already the initiatives that have started the Office of Missing Persons are asking victims to choose between the two. Do they want truth or do they want justice?    Another thing that you have to have for transitional justice is confidence-building measures. You have to have the confidence of the people. They have to have faith in state institutions.    The Tamils and other groups are still feeling very intensely the reverberations of past accountability efforts. The women I met in the refugee camps at the end of the war they were well aware that there was a United Nations desk to report sexual violence crimes. Nobody went anywhere near that desk for fear of retribution. The people who testified on lessons learned and reconciliation committee immediately faced harassment by security forces. The Office of Missing Persons has already been found to not consult the victims in any sort of genuine process.    In a recent survey in the northeast found that there is a deep disillusionment and mistrust, and this is important not just as a Sri Lankan state but of the international community. The Tamil population feels that the international community, along with the Sri Lankan Government, abandoned them in 2009. So it is important to recognize that there is a deep mistrust and disillusionment in these areas.    Another need for transitional justice is a memorialization of the dead. Memorializing their dead in the northeast has been criminalized. Not just that, they have removed the spaces of worship.    Slowly you are seeing the destruction of temples and the erection of Buddhist statues where people might memorialize their dead.    For many Tamils I've met recently, memory has no value. The way that they survive is by forgetting. They don't want to answer any more questions because they fear that memory will put their lives at risk.    This is a key problem you're going to face and you have this sort of moment where you have development and accountability processes merging together and what you create is this entrenched victimization where a person exists only by the worst experience that happened to them, where they have access to resources only by articulating the worst thing that's happened to them.    And then militarization--obviously, this demilitarization is one of the biggest issues for all communities in the north and east. To show demilitarization, yes, the government has made the governor of the northeast a civilian and not a military commander. So this is--you know, it is showing something.    But if you talk to the civilians there, there was a civilian I spoke to recently who said you don't need checkpoints anymore--you don't need soldiers.    When you have a context where preschool teachers are recruited into the civilian defense force where the only jobs are military-run hotels and hospitals and vegetable shops and on agricultural farms run by the military, then militarization is complete. Everybody is an informant.    For those who have returned home to some of the land that the government has returned, most of them are living in the shadow of military camps.    They are still immediately adjacent to the very forces that were a part of the atrocities committed in 2009. The military mediates every aspect of civic life in the north and east.    Everything from communal functions to private entrepreneurship. They have even left their mark on the school uniforms of Tamil children.    So this type of deep militarization, I think I would caution here has been used as a model for counter terrorism has been held up as something we should, you know, try to replicate and I think here it is important to note the defeat of the LTTE militarily requires a violation of all established human rights and humanitarian norms.    I don't think this is something we want to replicate. And women, peace and security, which is a critical issue now with the U.N. and here at the U.S. that we put a lot of effort into, a recent survey that I did found that while there has not been as many crimes--the magnitude of crimes against women by the state has decreased--the mode of operating remains the same.    So Tamil women still feel that if there is an act of sexual violence there will be no prosecution for that act. And so I think that what we are looking at--what we have to look at is what is the potential for the resurgence of violence.    We use these words like inequality and alienation and these are things that cause violence. But we always use them in a passive way. They are actually active things that are happening. They are political acts.    There is repressive policies that create inequality. There is populations that are alienated. It is done through political acts and these have a political impact.    So when we look at Sri Lanka and we look at political reform right now, what is the genuine political space available for Tamils? If you're going to gauge democratic transition simply by a regime change that shouldn't be how we're gauging it because you still see the arrest of protest organizers. You still have the Prevention of Terrorism Act in place.    A recent report reveals there are still white van abductions. There are still--the use of torture was noted by U.N. rapporteurs.    So as you've seen in other countries like in Myanmar and other countries in democratic transition, the commitment at a national level to a shift in politics, in political dynamics, does not mean there is a structural shift to include the perspectives of marginalized populations and there has not been a shift in that way.    So I would end by saying that the U.S. should have a cautious approach and the statements and policies should be calibrated by the ground realities.    Things like human rights violations, the loss of faith in state institutions, military occupation, a culture of impunity--these are the drivers of violence.    You cannot have a sustainable peace without addressing these things. So rather than measuring progress against the ideal of democracy in Sri Lanka, are we willing to push for the dismantling of political structures that hold inequality in place?    Thank you.</t>
@@ -592,11 +568,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -616,13 +590,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -644,11 +616,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -668,13 +638,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -696,11 +664,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -720,13 +686,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -748,11 +712,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -772,13 +734,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -800,11 +760,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -824,13 +782,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -852,11 +808,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -876,13 +830,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -904,11 +856,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -928,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -956,11 +904,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -980,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1008,11 +952,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1032,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1058,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1084,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1110,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1136,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1162,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1188,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1214,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1240,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1266,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1292,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1320,11 +1240,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1344,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1370,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1396,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1422,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1448,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1474,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1502,11 +1408,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20381.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20381.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Subcommittee will come to order.    Members will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions and extraneous materials for the record, subject to the length limitation in rules.    I would like to begin my remarks by offering my sincere condolences to those who recently lost loved ones and sustained property damage in Sri Lanka and across South Asia due to Cyclone Roanu.    I wish for a speedy recovery for the Sri Lankan people and hope our newly invigorated development relationship that we're going to discuss today can help meet some of the challenges left in the wake of the storm.    Sri Lanka's lengthy and tortuous civil war between the majority Sinhalese and the minority Tamils of the north and east ended in 2009 but the country remains challenged by deep divisions.    Sri Lanka's prior leader, President Rajapaksa, steered the country in an authoritarian direction which included allegations of pervasive human rights abuses, rampant corruption and the failure to follow the rule of law.    In 2015, the Sri Lankan people chose a new path with the election of President Sirisena and Prime Minister Wickremesinghe. There's an opportunity for a new era of democratic reforms and enhanced U.S.-Sri Lankan relations.    Relations between the U.S. and Sri Lanka under the Rajapaksa government were often strained due in part to human rights concerns and the treatment of the minority Tamil population.    We are optimistic that the Sirisena-led government is committed to change and have already begun implementing important reforms. In 2015, the Sri Lankan Parliament passed its nineteenth constitutional amendment to strengthen democratic governance and the government co-sponsored a U.N. Civil Rights Council resolution addressing atrocities committed during the civil war.    However, the Sirisena government now appears reluctant to allow foreign judges and prosecutors to participate in war crimes investigations as called for in the U.N. resolution.    President Sirisena has the difficult task of maintaining the government unity that is needed to pass constitutional reforms.    He has found himself between a rock and a hard place and any moves favored by one element of Sri Lanka's political puzzle could alienate another, potentially undermining his political support and breaking the fragile consensus that makes reform even possible.    In light of this challenge late last year, Secretary Kerry announced a U.S. assistance commitment of $40 million to support comprehensive reforms in Sri Lanka, which the administration hopes will have a significant effect on the trajectory of Sri Lanka's democratic reform and reconciliation process.    Closer U.S.-Sri Lankan ties founded in democratic values will facilitate a stronger foundation that will serve as a solid basis for broader cooperation in the Indian Ocean region as well.    Under the Rajapaksa--I apologize, I should have a better handle on that name--leadership human rights became a wedge issue for the United States and Sri Lanka, weakening the relationship, and in response Sri Lanka turned to China for support.    China considers to assert considerable influence, funding development projects in Sri Lanka including the Colombo Port City Project, a $1.4 billion infrastructure project almost entirely funded by Chinese foreign direct investment.    The port is strategically located along the busiest commercial sea lane in the world and will be a key part of China's One Belt, One Road Maritime Silk Road vision to expand its influence by investing in infrastructure along the trade and energy routes that transit the Indian Ocean.    China's regional investments are difficult for small nations like Sri Lanka to pass up. These offers are easy to accept as they do not come with commitments to reform in any way.    Through our increased development commitment and diplomatic ties, the United States is recognizing Sri Lanka's geopolitical significance to the region and I do support this elevated cooperation.    President Sirisena has shown a willingness to work more closely with the United States and in February of this year our nations began the annual U.S.-Sri Lanka partner dialogue, bringing new opportunities for the bilateral relationship.    And I look forward to our panel of experts suggesting ways in which we might enhance the U.S.-Sri-Lankan relationship to our mutual benefit.    I also hope they will share insights on Sri Lanka's delicate politics and make recommendations for the future of the U.S.-Sri Lankan relations.    This is a heightened--there is a heightened sense of optimism surrounding Sri Lanka's recent changes and I look forward to today's hearing to discuss ways we can prioritize those efforts.    And I'd like to turn now to Mr. Sherman for any statements he might have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Mr. Chairman, thank you for holding this hearing and I join with you in concern about China's expansion into the Indian Ocean and especially in Pakistani and Sri Lankan ports.    First, I want to express my sympathy and condolences for all those in Sri Lanka impacted by the flooding associated by Cyclone Roanu. I hope that the hundreds of thousands of people who were displaced can return to their homes and rebuild soon. I'm looking forward to those whose loved ones are missing hopefully being reunited with them.    Last year, Sri Lanka saw some positive developments. I expect there's near universal approval among the subcommittee members for the election of Sri Lankan President Sirisena and the reaffirmation of the decision in the parliamentary elections later in the year.    The elections brought to an end the previous government, which had become increasingly intolerant. These elections represented a true success for the democratic spirit. The new President deserves recognition for reducing the power of the presidency.    I look forward to one day complimenting an American President for scaling back the expansion of the imperial presidency here in the United States.    But returning to Sri Lanka, the new President there has scaled back the powers of the presidency, creating more space for dissent and free expression and opening the country to greater scrutiny by international human rights organizations.    These are notable steps. It's never easy to heal a civil war. The current government came in with a set of promises and impressed the world. Sri Lanka's co-sponsorship in October 2015 of the U.N. Human Rights Council resolution recommending concrete steps toward true political reconciliation was truly and widely acclaimed.    There were promises of the return of land seized during the conflict of accountability with international oversight for those who committed crimes, of constitutional reforms to move power to regions and of changes in the security sector that would end a culture that promoted abuse with impunity.    Last month, I met with the Sri Lankan Ambassador and encouraged Sri Lanka to move forward with plans to continue political reconciliation. The Ambassador described a decline in the military's role and in its presence in the north and east of the country, and the constitutional council's work toward giving more power to local officials.    What I've heard from others, particularly from Tamil groups, is that the political process of reconciliation and security sector reform are not moving forward nearly as quickly as they should.    It is encouraging that the government has established an office of missing persons but we have yet to see how it can operate independently from the government, how it will be resourced and how effective it will be.    The government has promised to reduce the role of the military but the defense budget has actually grown from $1.2 billion in 2009, which is when the conflict ended, to a new higher level of $2.13 billion in 2016.    The government has declared that it will resettle all those displaced in the war by the end of this year. Yet, it has not returned the vast majority of land seized during the conflict.    It is deeply disturbing to learn that both the President and Prime Minister of Sri Lanka have declared their intention to pursue a truth and reconciliation mechanism devoid of international judges. The Tamil population is unlikely to accept this as impartial justice.    Most critical is the issue of the return of government-seized land. The slow progress on this front represents not only a burden on tens of thousands of those who have been displaced, many of whom remain homeless but also a major barrier to building trust between the peoples of north and east Sri Lanka with the central government.    This is a tenuous moment. There is still a sense of optimism, but the government can no longer just rest on this sense of optimism that came with its election.    I look forward to the witnesses' assessment of these processes and especially for direction on what the United States can do to advance full reconciliation between the Sinhalese and the Tamils with due respect for human rights and accountability. Sri Lanka has traditionally been one of the most advanced and prosperous nations in South Asia and I look forward to it also being a beacon of human rights as well, and I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman.    I want to thank you for holding this hearing and thank the witnesses for being here. As a former chair of this committee, I have taken a particular interest in Sri Lanka and I visited there and been in the northeast and saw the burned-out buildings and a lot of the damage and things which had been caused by a lot of years of war and a lot of lives destroyed.    And just yesterday Sri Lanka acknowledged approximately 65,000 people missing during the 26 years of the off and on civil war. But now 6 years after the official end of the civil war there may be real opportunity to reconcile the people of Sri Lanka and rebuilt this really beautiful country. So I hope that they are successful.    However, I do remain somewhat weary. Although Sri Lanka is in the midst of early signs of actually attaining a sustaining peace and democracy, the scars of the civil war still remain and recently it was somewhat alarming when President Sirisena vowed to eradicate the LTTE ideologies both locally and internationally and I think this kind of rhetoric can be counterproductive but also damaging for the long-term prospects for national reconciliation, which is absolutely critical.    So I know these are exceptionally complex issues. I thank you and commend you for holding the hearing and yield back.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Chairman Salmon and Ranking Member Sherman, as well as all of our distinguished guests for coming to testify here today.    I especially love to see a professor from City University of New York on our panel. We continue to express our condolences to so many people and their families who have been affected by the landslides and our thoughts and prayers continued to be with them.    The election of President Sirisena in January 2015 brought the promise of a wide variety of reforms and a more inclusive government that would protect the interests of all Sri Lankans regardless of ethnic and religious affiliations.    The United States has a strong interest in ensuring that Sri Lanka remains committed to these reforms and we have certainly deepened our engagement with Sri Lanka in anticipation that a Sirisena government will follow through with these promises.    Sri Lanka has certainly taken some steps to implement a few reforms. But many people, particularly in the minority populations, experience ongoing violence and have been frustrated with the slow reform process that remains extremely vulnerable to political divisions.    I look forward to hearing your assessment on the current reform process and challenges. Thank you, and I yield back.</t>
   </si>
   <si>
@@ -85,12 +112,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Chairman. I would like to thank Subcommittee Chairman Matt Salmon and Ranking Member Brad Sherman along with their staffs for holding this hearing.    Although I am not a member of this committee, I am grateful for the opportunity to speak here today. The relationship between the United States and Sri Lanka is important to my district of Staten Island and western Brooklyn because I represent the largest population of Sri Lankans in the United States. And welcome, Professor. It is great to have another New Yorker in the room.    Many of my constituents are ethnic Tamils and left Sri Lanka during the civil war that lasted 26 years. They could not have been more relieved when it ended in 2009 and elections were conducted in 2015.    These elections in Sri Lanka have provided an opening for change and reforms that have been taken place. However, I am not sure if the reforms have gone far enough. So U.S. attention and encouragement remains vital.    In particular, the reforms needed for reconciliation between Sinhalese and Tamils, Hindus, Christians, Muslims and Buddhists after a long war have not yet been accomplished.    We need security sector reform to reorient the military for peace time, political reform to provide greater autonomy for regional governments, and legal reform for neutrality of the judiciary and criminalization.    Criminalizing terrible abuses such as enforced disappearances, war crimes and crimes against humanity remain as important tasks for the future.    Sri Lanka has made important commitments in the area of accountability and transactional justice and needs to be held to those commitments in the areas of truth telling, justice, reparations and institutional reforms so that reconciliation can take place.    I look forward to hearing from the witnesses and reporting back to my constituents, and I yield back the remainder of my time, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you. We are proud to be joined today by an esteemed group of panelists--first, Ms. Lisa Curtis, senior research fellow at the Heritage Foundation, welcome; Ms. Kara Bue, partner at Armitage International; and Dr. Nimmi Gowrinathan.    Did I say that right? Close enough, for government work anyway? A visiting professor from the city of New York.    And we are really thrilled to have you each here today and we will start with Ms. Curtis.</t>
   </si>
   <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Curtis. Thank you, Chairman and----</t>
   </si>
   <si>
@@ -103,10 +136,16 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Bue.</t>
   </si>
   <si>
+    <t>Bue</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bue. Thank you, Mr. Chairman and Ranking Member Sherman and the other esteemed members of this committee.    I would like to express my appreciation for your willingness to have me appear here to talk about the future of Sri Lanka. I followed it for some time and I am very grateful for the attention it is getting now.    I too would like to express my condolences to the Sri Lankan people during the cyclone that hit several months ago. I was there at the time and it was devastating to see the harm that was done to the people and their property, but I was very proud too that the United States came forward with additional aid that could help the people who suffered from those storms. So I was very happy to see that happen.    I had been asked to talk about U.S.-Sri Lanka relations. Over the last 15 years there has been an ebb and flow in terms of our engagement there.    With the election of President Sirisena and Prime Minister Wickremesinghe, there really is a new opportunity for engagement. They came into power with a platform of good governance and reconciliation, and together with that they came in with the desire to rebalance Sri Lanka's foreign policy.    What that did was open the door for the United States to engage in a wide range of opportunities for support in Sri Lanka's efforts to finally set the stage for lasting peace and it also allowed us to regain our partnership with Sri Lanka on key issues.    For its part, the Government of Sri Lanka has put forth what anyone would consider a very ambitious agenda. I look at it in terms of five pillars--their ideas about constitutional reform, economic stabilization, addressing the painful war legacy, rebuilding democratic institutions and reestablishing rule of law.    In many ways they have made great progress in the 15, 16 months since they've been in power. Importantly, they have undertaken two ambitious efforts.    One is constitutional reform where they're looking to redraft the constitution, have that presented to the Parliament at the end of the year and then thereafter follow it with a referendum.    The other and perhaps more important was Sri Lanka's agreement at the U.N. Human Rights Council meeting to agree to the resolution on reconciliation and transitional justice. That, I believe, is a historic event, particularly given the history of the Rajapaksa regime.    The other thing I would like to note on the Government of Sri Lanka's part is the tone it has taken with regard to ethnic issues and how different that is from the Rajapaksa regime.    I know some of what they are doing is very symbolic but it has been meaningful to people in Sri Lanka. The national anthem, for example, on Independence Day being sung in Tamil was a very big deal to many Tamils.    I met with Chief Justice Wickremesinghe and he was very moved by that fact. On Remembrance Day, which used to be called Victory Day, they held no parades and that, I think, was a testament to the Sri Lankan Government's intentions with regard to reconciliation.    In turn, for all of this the United States has stepped up its engagement as well. Soon after the elections, they had a number of high-level visits. They developed the idea of a new U.S.-Sri Lankan partnership dialogue. The U.S. was very instrumental at the Human Rights Council meeting.    In terms of the resolution we have increased assistance. Forty million dollars, I believe, is what Secretary Kerry offered during his visit in May 2015 and we engaged a bit on military to military engagement and, of course, are looking at economic opportunities.    Having traveled to Sri Lanka several--at least four times in the last 9 months, I did want to offer some caution in the sense that while we are very excited about how U.S.-Sri Lanka relations are going and the direction they are taking, there are clouds in terms of how the Sri Lankan Government can move forward.    They face a lot of challenges in trying to implement their wide ambitious agenda. The first is that it is very big and it has a lot of moving parts.    For Sri Lanka to do everything it wants to do, it is going to take a long and very complicated process to get things done and I think that is something that everyone needs to realize.    They also lack resources and institutional capacity, both in terms of people and in infrastructure. There are people within the military, within the bureaucracy and within political parties that aren't really on board in terms of what this ambitious agenda is about to do.    So they do face a lot of controversy there and on top of it, the new government is part of a very diverse and unique coalition within the Sri Lankan political party.    So there is a lot left to be done and not everyone has gotten down to work and is attempting to address its agenda. Having talked to people in the north and east, they are not yet feeling the peace dividend.    What I have heard is a statement that is commonly used, which is that everything has changed and yet nothing has changed. And so the government has a lot left to do to respond to the needs of the people in the war-affected areas and that too is a very large challenge and something that we should try to help them with.    In all of this, I think the areas that deserve the most attention are leadership and confidence-building measures. The Sri Lankan Government has a short time frame in which to get a lot done and people in the war-affected areas in particular aren't going to give it that much time before their positions start to harden and, frankly, I think they're already starting to harden.    And so in terms of leadership and confidence building, leadership is the idea of greater communication on the part of the Sri Lankan Government.    In terms of their agenda, I don't think they have done well enough in educating and bringing along all people of Sri Lanka--the people in the south as well as the north and east--in terms of what they are trying to do to respond to everybody's needs. Communication is a big factor.    In terms of confidence-building measures, the idea would try to change the mantra in the north and east about how everything has changed and nothing has changed. Start making things change a little bit for the better in terms of focusing on more land release, for example.    Lastly, an area that I think the U.S. should look at in greater detail is the idea of a donor conference for development in the north and east.    In 2003, after the cease fire had taken place, the United States was instrumental in bringing together an international coalition in a donor conference in Tokyo where they raised $4.5 billion for a period of 3 years.    And that gave people a lot of hope. Now, the rancorous politics in Sri Lanka dashed those hopes and war returned. But in this instance where we feel there is a little more hope and a little more opportunity for lasting peace, I do think it would be wise to consider another type of effort where we could be instrumental making tangible change happen in the war-affected areas.    And with that, I would like to thank you for your time and consideration.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you very much.    Dr. Gowrinathan.</t>
+  </si>
+  <si>
+    <t>Gowrinathan</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Gowrinathan. Okay. I imagine you all hear a lot of these panels, a lot of these conversations and I think what comes up over and over again is that there is this disconnect between researchers, between activists, between practitioner and policy makers, and I think one of the biggest disconnects is that policy makers don't understand the ground realities, right.    Obviously, it is difficult for policy makers to do. I think, you know, what a lot of my work--what I would like to testify to is how the policies that are made over here affect the people over there--how the people over there experience these policies.    If you pass materiel support for terrorism law in the United States it affects the resources available to a young girl in the northeast in Sri Lanka.    I think the U.S. policies abroad and particularly, you know, we are seeing this with Sri Lanka, are too often committed to an ideal and this feels sort of intentional to me, being committed to an ideal.    That ideal is usually democracy, which is an important ideal to uphold. But this commitment need not challenge political agendas. If you uphold only the ideal then you don't have to shift political agendas and it is these political agendas by the Sri Lankan Government, by the international community and by the United States that can sometimes sustain and create more conflict.    So in Sri Lanka as elsewhere solutions that are based on ideals are not going to be effective--have not been effective. This is particularly concerning right now because where a solution fails, violence returns, and that is what I think all of us don't want to see happen in Sri Lanka.    So as we consider the progress in Sri Lanka, how do we gauge it? Do we gauge it on policies that reflect an ideal to promote peace or do we gauge it on solutions that create structural change that is required to end violence.    Which way are we measuring these policies in Sri Lanka? And this is a really central question because the people these policies affect can feel the difference between the two.    And so there's four areas that I want to look at here to examine the gap between the people's experiences and the policies that we are examining. And the first is transitional justice.    People have been talking a lot about transitional justice in Sri Lanka. There was a new report out from a group of local scholars in Sri Lanka--legal scholars--and one of the first requirements for transitional justice is that you address both truth and justice. The two have to be done together.    And while the question for Sri Lanka is will the Government of Sri Lanka be willing to dig up mass graves, to find the missing husband of a widow, if that same body becomes evidence for war crimes.    Will there be truth and justice? The ground reports reveal that already the initiatives that have started the Office of Missing Persons are asking victims to choose between the two. Do they want truth or do they want justice?    Another thing that you have to have for transitional justice is confidence-building measures. You have to have the confidence of the people. They have to have faith in state institutions.    The Tamils and other groups are still feeling very intensely the reverberations of past accountability efforts. The women I met in the refugee camps at the end of the war they were well aware that there was a United Nations desk to report sexual violence crimes. Nobody went anywhere near that desk for fear of retribution. The people who testified on lessons learned and reconciliation committee immediately faced harassment by security forces. The Office of Missing Persons has already been found to not consult the victims in any sort of genuine process.    In a recent survey in the northeast found that there is a deep disillusionment and mistrust, and this is important not just as a Sri Lankan state but of the international community. The Tamil population feels that the international community, along with the Sri Lankan Government, abandoned them in 2009. So it is important to recognize that there is a deep mistrust and disillusionment in these areas.    Another need for transitional justice is a memorialization of the dead. Memorializing their dead in the northeast has been criminalized. Not just that, they have removed the spaces of worship.    Slowly you are seeing the destruction of temples and the erection of Buddhist statues where people might memorialize their dead.    For many Tamils I've met recently, memory has no value. The way that they survive is by forgetting. They don't want to answer any more questions because they fear that memory will put their lives at risk.    This is a key problem you're going to face and you have this sort of moment where you have development and accountability processes merging together and what you create is this entrenched victimization where a person exists only by the worst experience that happened to them, where they have access to resources only by articulating the worst thing that's happened to them.    And then militarization--obviously, this demilitarization is one of the biggest issues for all communities in the north and east. To show demilitarization, yes, the government has made the governor of the northeast a civilian and not a military commander. So this is--you know, it is showing something.    But if you talk to the civilians there, there was a civilian I spoke to recently who said you don't need checkpoints anymore--you don't need soldiers.    When you have a context where preschool teachers are recruited into the civilian defense force where the only jobs are military-run hotels and hospitals and vegetable shops and on agricultural farms run by the military, then militarization is complete. Everybody is an informant.    For those who have returned home to some of the land that the government has returned, most of them are living in the shadow of military camps.    They are still immediately adjacent to the very forces that were a part of the atrocities committed in 2009. The military mediates every aspect of civic life in the north and east.    Everything from communal functions to private entrepreneurship. They have even left their mark on the school uniforms of Tamil children.    So this type of deep militarization, I think I would caution here has been used as a model for counter terrorism has been held up as something we should, you know, try to replicate and I think here it is important to note the defeat of the LTTE militarily requires a violation of all established human rights and humanitarian norms.    I don't think this is something we want to replicate. And women, peace and security, which is a critical issue now with the U.N. and here at the U.S. that we put a lot of effort into, a recent survey that I did found that while there has not been as many crimes--the magnitude of crimes against women by the state has decreased--the mode of operating remains the same.    So Tamil women still feel that if there is an act of sexual violence there will be no prosecution for that act. And so I think that what we are looking at--what we have to look at is what is the potential for the resurgence of violence.    We use these words like inequality and alienation and these are things that cause violence. But we always use them in a passive way. They are actually active things that are happening. They are political acts.    There is repressive policies that create inequality. There is populations that are alienated. It is done through political acts and these have a political impact.    So when we look at Sri Lanka and we look at political reform right now, what is the genuine political space available for Tamils? If you're going to gauge democratic transition simply by a regime change that shouldn't be how we're gauging it because you still see the arrest of protest organizers. You still have the Prevention of Terrorism Act in place.    A recent report reveals there are still white van abductions. There are still--the use of torture was noted by U.N. rapporteurs.    So as you've seen in other countries like in Myanmar and other countries in democratic transition, the commitment at a national level to a shift in politics, in political dynamics, does not mean there is a structural shift to include the perspectives of marginalized populations and there has not been a shift in that way.    So I would end by saying that the U.S. should have a cautious approach and the statements and policies should be calibrated by the ground realities.    Things like human rights violations, the loss of faith in state institutions, military occupation, a culture of impunity--these are the drivers of violence.    You cannot have a sustainable peace without addressing these things. So rather than measuring progress against the ideal of democracy in Sri Lanka, are we willing to push for the dismantling of political structures that hold inequality in place?    Thank you.</t>
@@ -518,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +565,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,869 +587,1014 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20381.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20381.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Chabot</t>
@@ -557,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,1011 +602,1084 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
